--- a/biology/Médecine/Mavacamten/Mavacamten.xlsx
+++ b/biology/Médecine/Mavacamten/Mavacamten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mavacamten est un inhibiteur de la myosine utilisé comme médicament dans la cardiomyopathie hypertrophique dans sa forme obstructive.
 </t>
@@ -511,9 +523,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fixe sur la myosine ATPase de manière réversible, diminuant l'interaction de la myosine sur l'actine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fixe sur la myosine ATPase de manière réversible, diminuant l'interaction de la myosine sur l'actine.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez le patient porteur d'une cardiomyopathie hypertrophique obstructive symptomatique, avec une fraction d'éjection conservée, il permet une amélioration de la tolérance à l'effort, des symptômes[1] et réduit l'obstruction à l'éjection[2]. Il permet d'éviter, dans certains cas, le recours, à court[3] et à moyen terme[4], à une chirurgie ou à une alcoolisation septale. Les patients ont une meilleure qualité de vie[5].
-Au niveau biologique, il réduit le taux sanguin de NTproBNP ainsi que celui de la troponine I[2].
-Au niveau structural, il permet une réduction de la masse ventriculaire gauche, de l'épaisseur du septum et de la taille de l'oreillette gauche[6] avec un recul atteignant presque deux ans[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez le patient porteur d'une cardiomyopathie hypertrophique obstructive symptomatique, avec une fraction d'éjection conservée, il permet une amélioration de la tolérance à l'effort, des symptômes et réduit l'obstruction à l'éjection. Il permet d'éviter, dans certains cas, le recours, à court et à moyen terme, à une chirurgie ou à une alcoolisation septale. Les patients ont une meilleure qualité de vie.
+Au niveau biologique, il réduit le taux sanguin de NTproBNP ainsi que celui de la troponine I.
+Au niveau structural, il permet une réduction de la masse ventriculaire gauche, de l'épaisseur du septum et de la taille de l'oreillette gauche avec un recul atteignant presque deux ans.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Contre-indication</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait de son mécanisme d'action, le mavacantem ne doit pas être donné en cas de fraction d'éjection inférieure à 50 %[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de son mécanisme d'action, le mavacantem ne doit pas être donné en cas de fraction d'éjection inférieure à 50 %.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Aspects commerciaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Disponible aux États-Unis, le coût journalier est proche de 250 dollars en 2022[8]. Il est disponible en France à partie de fin 2023[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Disponible aux États-Unis, le coût journalier est proche de 250 dollars en 2022. Il est disponible en France à partie de fin 2023.
 </t>
         </is>
       </c>
